--- a/Vitor/Matriz Rastreabilidade.xlsx
+++ b/Vitor/Matriz Rastreabilidade.xlsx
@@ -81,7 +81,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +438,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" activeCellId="9" sqref="A1:J1 A2 A3 A4 A5 A6 A7 A8 A9 A10"/>
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
